--- a/BehaviourChangeTechniques/bcto.xlsx
+++ b/BehaviourChangeTechniques/bcto.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that involves making a detailed plan for the performance of the behaviour, which must include at least one of context, frequency, duration or intensity. TEST</t>
+          <t>A &lt;goal directed BCT&gt; that involves making a detailed plan for the performance of the behaviour, which must include at least one of context, frequency, duration or intensity. TEST2</t>
         </is>
       </c>
       <c r="D2" s="2" t="n"/>

--- a/BehaviourChangeTechniques/bcto.xlsx
+++ b/BehaviourChangeTechniques/bcto.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>A &lt;goal directed BCT&gt; that involves making a detailed plan for the performance of the behaviour, which must include at least one of context, frequency, duration or intensity. TEST</t>
+          <t>A &lt;goal directed BCT&gt; that involves making a detailed plan for the performance of the behaviour, which must include at least one of context, frequency, duration or intensity.</t>
         </is>
       </c>
       <c r="D2" s="2" t="n"/>
